--- a/dataset/Tasks.xlsx
+++ b/dataset/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\llm\WebAppEval\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB28E6C-8DE0-4FB2-A358-C639804E2A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70592FC9-8ACA-4ABC-AEE3-32669C597346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="362">
   <si>
     <t>Description</t>
   </si>
@@ -524,9 +524,6 @@
     <t>Create a new customer account</t>
   </si>
   <si>
-    <t>Place an order as a guest and navigate to the order confirmation page.</t>
-  </si>
-  <si>
     <t>Update the price of the product with SKU 24-WG088 to $15.</t>
   </si>
   <si>
@@ -576,9 +573,6 @@
   </si>
   <si>
     <t>Update a pending leave request to switch from paid leave to sick leave on September 12.</t>
-  </si>
-  <si>
-    <t>Navigate to Watches, apply filter results by price $40–$49.99, sort by Price: Low to High, and view first first product detail page.</t>
   </si>
   <si>
     <t>Cancel the submitted Pending leave request on Oct 9</t>
@@ -2015,6 +2009,47 @@
   "match_type": "exact",
   "match_value": "Product",
   "description": ""
+}</t>
+  </si>
+  <si>
+    <t>Navigate to Watches, apply filter results by price $40–$49.99.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "document.querySelector('.filter-current .filter-value')?.innerText",
+  "match_type": "exact",
+  "match_value": "$40.00 - $49.99",
+  "description": "Verify the price filter $40.00–$49.99 is applied."
+}</t>
+  </si>
+  <si>
+    <t>Place an order as a guest and reach the checkout success page.</t>
+  </si>
+  <si>
+    <t>{
+  "match_type": "contains",
+  "match_value": "checkout/onepage/success"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "type": "dom_match",
+  "url": "__SHOPPING__/overnight-duffle-bag.html",
+  "dom_extractor": "document.querySelector('[data-ui-id=\"page-title-wrapper\"]')?.innerText",
+  "match_type": "exact",
+  "match_value": "Overnight Duffle",
+  "description": "Verify the product page is accessible after updating the URL key."
+}</t>
+  </si>
+  <si>
+    <t>{
+  "type": "dom_match",
+  "url": "__SHOPPING__/checkout/cart/",
+  "dom_extractor": "(() =&gt; { const items = [...document.querySelectorAll('#shopping-cart-table tbody.cart.item')]; const names = items.map(t =&gt; t.querySelector('.product-item-name a')?.innerText); return (items.length === 3 &amp;&amp; names.includes('Deirdre Relaxed-Fit Capri') &amp;&amp; names.includes('Sylvia Capri') &amp;&amp; names.includes('Aeon Capri')) ? \"1\" : \"0\"; })()",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify the shopping cart contains exactly three items: Deirdre Relaxed-Fit Capri, Sylvia Capri, and Aeon Capri."
 }</t>
   </si>
 </sst>
@@ -2267,7 +2302,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2355,53 +2390,69 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2693,7 +2744,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,7 +2776,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>26</v>
@@ -2744,3905 +2795,3913 @@
       <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="41">
         <v>3</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="37">
+      <c r="E3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="41">
         <v>9</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="J3" s="39"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="41">
         <v>4</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="37">
+      <c r="E5" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="41">
         <v>12</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="41">
         <v>8</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="J6" s="39"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="51">
         <v>6</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="41">
         <v>3</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="41">
         <v>8</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="35" t="s">
+      <c r="B10" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="41">
         <v>17</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="37">
+      <c r="E11" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="41">
         <v>6</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="J11" s="39"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="35" t="s">
+      <c r="B12" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="37">
+      <c r="E12" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="41">
         <v>12</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="37">
+      <c r="E13" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="41">
         <v>4</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="37">
+      <c r="E14" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="41">
         <v>9</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
+      <c r="G15" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>15</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="37">
+      <c r="E16" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="41">
         <v>15</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="J16" s="39"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="35" t="s">
+      <c r="B17" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="37">
+      <c r="E17" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="41">
         <v>18</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="J17" s="39"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="35" t="s">
+      <c r="B18" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="37">
+      <c r="E18" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="41">
         <v>9</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="J18" s="39"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="41">
         <v>4</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
+      <c r="G19" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>19</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="35" t="s">
+      <c r="C20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="37">
+      <c r="E20" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="41">
         <v>8</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="J20" s="39"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>20</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="37">
+      <c r="E21" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="41">
         <v>8</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="J21" s="39"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>21</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="35" t="s">
+      <c r="C22" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="37">
+      <c r="E22" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="41">
         <v>7</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="J22" s="39"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>22</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="35" t="s">
+      <c r="C23" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="41">
         <v>8</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="J23" s="39"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>23</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="35" t="s">
+      <c r="C24" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="37">
+      <c r="E24" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="41">
         <v>6</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="J24" s="39"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>24</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="35" t="s">
+      <c r="C25" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="37">
+      <c r="E25" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="41">
         <v>7</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="J25" s="39"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>25</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="35" t="s">
+      <c r="B26" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="37">
+      <c r="E26" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="41">
         <v>4</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
+      <c r="H26" s="49"/>
+      <c r="I26" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="39"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>26</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="35" t="s">
+      <c r="C27" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="37">
+      <c r="E27" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="41">
         <v>8</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="J27" s="39"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="37">
+      <c r="E28" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="41">
         <v>10</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="J28" s="39"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="37">
+      <c r="E29" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="41">
         <v>6</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="J29" s="39"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>29</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="35" t="s">
+      <c r="B30" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="37">
+      <c r="E30" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="J30" s="39"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>30</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="35" t="s">
+      <c r="B31" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="37">
+      <c r="E31" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="41">
         <v>6</v>
       </c>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="39"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>31</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="35" t="s">
+      <c r="B32" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="37">
+      <c r="E32" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="41">
         <v>4</v>
       </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38" t="s">
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="J32" s="39"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>32</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="35" t="s">
+      <c r="B33" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="37">
+      <c r="E33" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="41">
         <v>5</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="J33" s="39"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>33</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="35" t="s">
+      <c r="C34" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="37">
+      <c r="E34" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="41">
         <v>5</v>
       </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="J34" s="39"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>34</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="35" t="s">
+      <c r="B35" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="37">
+      <c r="E35" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="41">
         <v>5</v>
       </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="J35" s="39"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <v>35</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="35" t="s">
+      <c r="B36" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="37">
+      <c r="E36" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="41">
         <v>5</v>
       </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="J36" s="39"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="41">
         <v>14</v>
       </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38" t="s">
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="J37" s="39"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>37</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="35" t="s">
+      <c r="B38" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="37">
+      <c r="E38" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="41">
         <v>7</v>
       </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="J38" s="39"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>38</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="35" t="s">
+      <c r="C39" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="37">
+      <c r="E39" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="41">
         <v>5</v>
       </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="J39" s="39"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>39</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="37">
+      <c r="E40" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="41">
         <v>12</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="J40" s="39"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40" s="50"/>
     </row>
     <row r="41" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>40</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="35" t="s">
+      <c r="C41" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="37">
+      <c r="E41" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="41">
         <v>6</v>
       </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38" t="s">
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="39"/>
+      <c r="J41" s="50"/>
     </row>
     <row r="42" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>41</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="35" t="s">
+      <c r="C42" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="37">
+      <c r="E42" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="41">
         <v>7</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="J42" s="39"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="J42" s="50"/>
     </row>
     <row r="43" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>42</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="35" t="s">
+      <c r="C43" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="37">
+      <c r="E43" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="41">
         <v>7</v>
       </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="J43" s="39"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="J43" s="50"/>
     </row>
     <row r="44" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>43</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="35" t="s">
+      <c r="B44" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" s="37">
+      <c r="E44" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="41">
         <v>16</v>
       </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="J44" s="39"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="J44" s="50"/>
     </row>
     <row r="45" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>44</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="35" t="s">
+      <c r="C45" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="37">
+      <c r="E45" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="41">
         <v>10</v>
       </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="J45" s="39"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="J45" s="50"/>
     </row>
     <row r="46" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>45</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="35" t="s">
+      <c r="C46" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="37">
+      <c r="E46" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="41">
         <v>8</v>
       </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="J46" s="39"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>46</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="35" t="s">
+      <c r="C47" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="37">
+      <c r="E47" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="41">
         <v>8</v>
       </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="J47" s="39"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="J47" s="50"/>
     </row>
     <row r="48" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>47</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="35" t="s">
+      <c r="C48" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="37">
+      <c r="E48" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="41">
         <v>8</v>
       </c>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="J48" s="39"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="J48" s="50"/>
     </row>
     <row r="49" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>48</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="35" t="s">
+      <c r="C49" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="37">
+      <c r="E49" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="41">
         <v>18</v>
       </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38" t="s">
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="J49" s="39"/>
+      <c r="J49" s="50"/>
     </row>
     <row r="50" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>49</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="35" t="s">
+      <c r="C50" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="37">
+      <c r="E50" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="41">
         <v>5</v>
       </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="J50" s="39"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="J50" s="50"/>
     </row>
     <row r="51" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>50</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="35" t="s">
+      <c r="C51" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="37">
+      <c r="E51" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="41">
         <v>5</v>
       </c>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="J51" s="39"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="J51" s="50"/>
     </row>
     <row r="52" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>51</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="35" t="s">
+      <c r="C52" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="37">
+      <c r="E52" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="41">
         <v>10</v>
       </c>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="J52" s="39"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="J52" s="50"/>
     </row>
     <row r="53" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>52</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="35" t="s">
+      <c r="C53" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="37">
+      <c r="E53" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="41">
         <v>4</v>
       </c>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="J53" s="39"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="J53" s="50"/>
     </row>
     <row r="54" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>53</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="35" t="s">
+      <c r="C54" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="37">
+      <c r="E54" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="41">
         <v>4</v>
       </c>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="J54" s="39"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="J54" s="50"/>
     </row>
     <row r="55" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>54</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="35" t="s">
+      <c r="C55" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" s="37">
+      <c r="E55" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="41">
         <v>5</v>
       </c>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="J55" s="39"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="J55" s="50"/>
     </row>
     <row r="56" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>55</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="35" t="s">
+      <c r="C56" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="37">
+      <c r="E56" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="41">
         <v>9</v>
       </c>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="J56" s="39"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="J56" s="50"/>
     </row>
     <row r="57" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>56</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="35" t="s">
+      <c r="C57" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="37">
+      <c r="E57" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="41">
         <v>10</v>
       </c>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="J57" s="39"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="J57" s="50"/>
     </row>
     <row r="58" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>57</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="35" t="s">
+      <c r="C58" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F58" s="37">
+      <c r="E58" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="41">
         <v>10</v>
       </c>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="J58" s="39"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="J58" s="50"/>
     </row>
     <row r="59" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>58</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="35" t="s">
+      <c r="C59" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F59" s="37">
+      <c r="E59" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="41">
         <v>8</v>
       </c>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="J59" s="39"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="J59" s="50"/>
     </row>
     <row r="60" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>59</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="35" t="s">
+      <c r="C60" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" s="37">
+      <c r="E60" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="41">
         <v>7</v>
       </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="J60" s="39"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="J60" s="50"/>
     </row>
     <row r="61" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>60</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="35" t="s">
+      <c r="C61" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" s="37">
+      <c r="E61" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="41">
         <v>12</v>
       </c>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="J61" s="39"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="J61" s="50"/>
     </row>
     <row r="62" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>61</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" s="35" t="s">
+      <c r="C62" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="37">
+      <c r="E62" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="41">
         <v>8</v>
       </c>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="J62" s="39"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="J62" s="50"/>
     </row>
     <row r="63" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>62</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="35" t="s">
+      <c r="C63" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="37">
+      <c r="E63" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="41">
         <v>7</v>
       </c>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="J63" s="39"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="J63" s="50"/>
     </row>
     <row r="64" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>63</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="35" t="s">
+      <c r="C64" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="37">
+      <c r="E64" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="41">
         <v>7</v>
       </c>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="J64" s="39"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="J64" s="50"/>
     </row>
     <row r="65" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>64</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="35" t="s">
+      <c r="C65" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F65" s="37">
+      <c r="E65" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="41">
         <v>8</v>
       </c>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="J65" s="39"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="J65" s="50"/>
     </row>
     <row r="66" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>65</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="35" t="s">
+      <c r="C66" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F66" s="37">
+      <c r="E66" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="41">
         <v>8</v>
       </c>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="J66" s="39"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="J66" s="50"/>
     </row>
     <row r="67" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>66</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="35" t="s">
+      <c r="C67" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" s="37">
+      <c r="E67" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="41">
         <v>8</v>
       </c>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="J67" s="39"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="J67" s="50"/>
     </row>
     <row r="68" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>67</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="35" t="s">
+      <c r="C68" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F68" s="37">
+      <c r="E68" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="41">
         <v>9</v>
       </c>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="J68" s="39"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="J68" s="50"/>
     </row>
     <row r="69" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>68</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="35" t="s">
+      <c r="C69" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F69" s="37">
+      <c r="E69" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="41">
         <v>10</v>
       </c>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="J69" s="39"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="J69" s="50"/>
     </row>
     <row r="70" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>69</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="35" t="s">
+      <c r="C70" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F70" s="37">
+      <c r="E70" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="41">
         <v>9</v>
       </c>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="J70" s="39"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="J70" s="50"/>
     </row>
     <row r="71" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>70</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="35" t="s">
+      <c r="C71" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F71" s="37">
+      <c r="E71" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="41">
         <v>8</v>
       </c>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="J71" s="39"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="J71" s="50"/>
     </row>
     <row r="72" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>71</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="35" t="s">
+      <c r="C72" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F72" s="37">
+      <c r="E72" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="41">
         <v>8</v>
       </c>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="J72" s="39"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="J72" s="50"/>
     </row>
     <row r="73" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>72</v>
       </c>
-      <c r="B73" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="35" t="s">
+      <c r="B73" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F73" s="37">
+      <c r="E73" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="41">
         <v>8</v>
       </c>
-      <c r="G73" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="39"/>
+      <c r="G73" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="50"/>
     </row>
     <row r="74" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>73</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="35" t="s">
+      <c r="C74" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F74" s="37">
+      <c r="E74" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="41">
         <v>8</v>
       </c>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="J74" s="39"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="J74" s="50"/>
     </row>
     <row r="75" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>74</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="35" t="s">
+      <c r="C75" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E75" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" s="37">
+      <c r="E75" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="41">
         <v>8</v>
       </c>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="J75" s="39"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="J75" s="50"/>
     </row>
     <row r="76" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>75</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="35" t="s">
+      <c r="C76" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E76" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F76" s="37">
+      <c r="E76" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="41">
         <v>10</v>
       </c>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="J76" s="39"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="J76" s="50"/>
     </row>
     <row r="77" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>76</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="35" t="s">
+      <c r="C77" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F77" s="37">
+      <c r="E77" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" s="41">
         <v>11</v>
       </c>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="J77" s="39"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="J77" s="50"/>
     </row>
     <row r="78" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>77</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="35" t="s">
+      <c r="C78" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F78" s="37">
+      <c r="E78" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="41">
         <v>8</v>
       </c>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="J78" s="39"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="J78" s="50"/>
     </row>
     <row r="79" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>78</v>
       </c>
-      <c r="B79" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" s="35" t="s">
+      <c r="B79" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E79" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F79" s="37">
+      <c r="E79" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="41">
         <v>6</v>
       </c>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="J79" s="39"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="J79" s="50"/>
     </row>
     <row r="80" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>79</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="35" t="s">
+      <c r="C80" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F80" s="37">
+      <c r="E80" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="41">
         <v>8</v>
       </c>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="J80" s="39"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="J80" s="50"/>
     </row>
     <row r="81" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>80</v>
       </c>
-      <c r="B81" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" s="35" t="s">
+      <c r="B81" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E81" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F81" s="37">
+      <c r="E81" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="41">
         <v>6</v>
       </c>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="J81" s="39"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="J81" s="50"/>
     </row>
     <row r="82" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>81</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="35" t="s">
+      <c r="C82" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E82" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F82" s="37">
+      <c r="E82" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="41">
         <v>6</v>
       </c>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="J82" s="39"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="J82" s="50"/>
     </row>
     <row r="83" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>82</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C83" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="35" t="s">
+      <c r="C83" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F83" s="37">
+      <c r="E83" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="41">
         <v>8</v>
       </c>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="J83" s="39"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="J83" s="50"/>
     </row>
     <row r="84" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>83</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="B84" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C84" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84" s="35" t="s">
+      <c r="C84" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F84" s="37">
+      <c r="E84" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="41">
         <v>4</v>
       </c>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="J84" s="39"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="J84" s="50"/>
     </row>
     <row r="85" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>84</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C85" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" s="35" t="s">
+      <c r="C85" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85" s="37">
+      <c r="E85" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="41">
         <v>4</v>
       </c>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="J85" s="39"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="J85" s="50"/>
     </row>
     <row r="86" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>85</v>
       </c>
-      <c r="B86" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D86" s="35" t="s">
+      <c r="B86" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E86" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F86" s="37">
+      <c r="E86" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="41">
         <v>6</v>
       </c>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="J86" s="39"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="J86" s="50"/>
     </row>
     <row r="87" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>86</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C87" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" s="35" t="s">
+      <c r="C87" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E87" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F87" s="37">
+      <c r="E87" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="41">
         <v>4</v>
       </c>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="J87" s="39"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="J87" s="50"/>
     </row>
     <row r="88" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>87</v>
       </c>
-      <c r="B88" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D88" s="35" t="s">
+      <c r="B88" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E88" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" s="37">
+      <c r="E88" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="41">
         <v>5</v>
       </c>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="J88" s="39"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="J88" s="50"/>
     </row>
     <row r="89" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>88</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D89" s="35" t="s">
+      <c r="C89" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F89" s="37">
+      <c r="E89" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" s="41">
         <v>5</v>
       </c>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="J89" s="39"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="J89" s="50"/>
     </row>
     <row r="90" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>89</v>
       </c>
-      <c r="B90" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D90" s="35" t="s">
+      <c r="B90" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F90" s="37">
+      <c r="E90" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" s="41">
         <v>4</v>
       </c>
-      <c r="G90" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="39"/>
+      <c r="G90" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="50"/>
     </row>
     <row r="91" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>90</v>
       </c>
-      <c r="B91" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="C91" s="35" t="s">
+      <c r="B91" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E91" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F91" s="37">
+      <c r="E91" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="41">
         <v>3</v>
       </c>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="39"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="50"/>
     </row>
     <row r="92" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>91</v>
       </c>
-      <c r="B92" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="C92" s="35" t="s">
+      <c r="B92" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="C92" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E92" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F92" s="37">
+      <c r="E92" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" s="41">
         <v>6</v>
       </c>
-      <c r="G92" s="38" t="s">
+      <c r="G92" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="39"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="50"/>
     </row>
     <row r="93" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>92</v>
       </c>
-      <c r="B93" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="C93" s="35" t="s">
+      <c r="B93" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E93" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F93" s="37">
+      <c r="E93" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="41">
         <v>8</v>
       </c>
-      <c r="G93" s="38" t="s">
+      <c r="G93" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="39"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="50"/>
     </row>
     <row r="94" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>93</v>
       </c>
-      <c r="B94" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="C94" s="35" t="s">
+      <c r="B94" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C94" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E94" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F94" s="37">
+      <c r="E94" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="41">
         <v>6</v>
       </c>
-      <c r="G94" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="39"/>
+      <c r="G94" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="50"/>
     </row>
     <row r="95" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>94</v>
       </c>
-      <c r="B95" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="C95" s="35" t="s">
+      <c r="B95" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C95" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E95" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F95" s="37">
+      <c r="E95" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="41">
         <v>8</v>
       </c>
-      <c r="G95" s="38" t="s">
+      <c r="G95" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="39"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="50"/>
     </row>
     <row r="96" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>95</v>
       </c>
-      <c r="B96" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C96" s="35" t="s">
+      <c r="B96" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="D96" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E96" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F96" s="37">
+      <c r="E96" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="41">
         <v>6</v>
       </c>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="J96" s="39"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="J96" s="50"/>
     </row>
     <row r="97" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>96</v>
       </c>
-      <c r="B97" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="C97" s="35" t="s">
+      <c r="B97" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C97" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E97" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F97" s="37">
+      <c r="E97" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F97" s="41">
         <v>4</v>
       </c>
-      <c r="G97" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="39"/>
+      <c r="G97" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="50"/>
     </row>
     <row r="98" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>97</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98" s="35" t="s">
+      <c r="C98" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E98" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F98" s="37">
+      <c r="E98" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" s="41">
         <v>10</v>
       </c>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="J98" s="39"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="J98" s="50"/>
     </row>
     <row r="99" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>98</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D99" s="35" t="s">
+      <c r="C99" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E99" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F99" s="37">
+      <c r="E99" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" s="41">
         <v>10</v>
       </c>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="J99" s="39"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="J99" s="50"/>
     </row>
     <row r="100" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>99</v>
       </c>
-      <c r="B100" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="35" t="s">
+      <c r="B100" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E100" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F100" s="37">
+      <c r="E100" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" s="41">
         <v>6</v>
       </c>
-      <c r="G100" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="39"/>
+      <c r="G100" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="50"/>
     </row>
     <row r="101" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>100</v>
       </c>
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="35" t="s">
+      <c r="C101" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D101" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E101" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F101" s="37">
+      <c r="E101" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F101" s="41">
         <v>8</v>
       </c>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="J101" s="39"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="J101" s="50"/>
     </row>
     <row r="102" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>101</v>
       </c>
-      <c r="B102" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D102" s="35" t="s">
+      <c r="B102" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E102" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F102" s="37">
+      <c r="E102" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F102" s="41">
         <v>9</v>
       </c>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="J102" s="39"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="J102" s="50"/>
     </row>
     <row r="103" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>102</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C103" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="35" t="s">
+      <c r="D103" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F103" s="37">
+      <c r="E103" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103" s="41">
         <v>14</v>
       </c>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="J103" s="39"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="J103" s="50"/>
     </row>
     <row r="104" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>103</v>
       </c>
-      <c r="B104" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D104" s="35" t="s">
+      <c r="B104" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E104" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F104" s="37">
+      <c r="E104" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F104" s="41">
         <v>7</v>
       </c>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="J104" s="39"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="J104" s="50"/>
     </row>
     <row r="105" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>104</v>
       </c>
-      <c r="B105" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D105" s="35" t="s">
+      <c r="B105" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D105" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E105" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F105" s="37">
+      <c r="E105" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" s="41">
         <v>8</v>
       </c>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="J105" s="39"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="J105" s="50"/>
     </row>
     <row r="106" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>105</v>
       </c>
-      <c r="B106" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C106" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D106" s="35" t="s">
+      <c r="B106" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D106" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E106" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F106" s="37">
+      <c r="E106" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F106" s="41">
         <v>5</v>
       </c>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="I106" s="42"/>
-      <c r="J106" s="39"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="I106" s="44"/>
+      <c r="J106" s="50"/>
     </row>
     <row r="107" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>106</v>
       </c>
-      <c r="B107" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D107" s="35" t="s">
+      <c r="B107" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D107" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E107" s="36" t="s">
+      <c r="E107" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F107" s="37">
+      <c r="F107" s="41">
         <v>5</v>
       </c>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="I107" s="42"/>
-      <c r="J107" s="39"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="I107" s="44"/>
+      <c r="J107" s="50"/>
     </row>
     <row r="108" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>107</v>
       </c>
-      <c r="B108" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D108" s="35" t="s">
+      <c r="B108" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E108" s="36" t="s">
+      <c r="E108" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F108" s="37">
+      <c r="F108" s="41">
         <v>16</v>
       </c>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="39"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="J108" s="50"/>
     </row>
     <row r="109" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>108</v>
       </c>
-      <c r="B109" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C109" s="35" t="s">
+      <c r="B109" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="36" t="s">
+      <c r="E109" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="37">
+      <c r="F109" s="41">
         <v>6</v>
       </c>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="I109" s="42"/>
-      <c r="J109" s="43"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I109" s="44"/>
+      <c r="J109" s="53"/>
     </row>
     <row r="110" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>109</v>
       </c>
-      <c r="B110" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C110" s="44" t="s">
+      <c r="B110" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D110" s="35" t="s">
+      <c r="D110" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E110" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F110" s="37">
+      <c r="E110" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F110" s="41">
         <v>7</v>
       </c>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="J110" s="43"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="J110" s="53"/>
     </row>
     <row r="111" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>110</v>
       </c>
-      <c r="B111" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C111" s="45" t="s">
+      <c r="B111" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D111" s="35" t="s">
+      <c r="D111" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F111" s="37">
+      <c r="F111" s="41">
         <v>1</v>
       </c>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="I111" s="42"/>
-      <c r="J111" s="39"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="I111" s="44"/>
+      <c r="J111" s="50"/>
     </row>
     <row r="112" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>111</v>
       </c>
-      <c r="B112" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C112" s="46" t="s">
+      <c r="B112" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C112" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="35" t="s">
+      <c r="D112" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E112" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F112" s="37">
+      <c r="E112" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F112" s="41">
         <v>6</v>
       </c>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="I112" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="J112" s="39"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="I112" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="J112" s="50"/>
     </row>
     <row r="113" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>112</v>
       </c>
-      <c r="B113" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C113" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D113" s="35" t="s">
+      <c r="B113" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E113" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F113" s="37">
+      <c r="E113" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F113" s="41">
         <v>7</v>
       </c>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="J113" s="39"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="J113" s="50"/>
     </row>
     <row r="114" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>113</v>
       </c>
-      <c r="B114" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C114" s="46" t="s">
+      <c r="B114" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C114" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E114" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F114" s="37">
+      <c r="E114" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114" s="41">
         <v>10</v>
       </c>
-      <c r="G114" s="42"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="J114" s="39"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="44"/>
+      <c r="I114" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="J114" s="50"/>
     </row>
     <row r="115" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>114</v>
       </c>
-      <c r="B115" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C115" s="46" t="s">
+      <c r="B115" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C115" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D115" s="35" t="s">
+      <c r="D115" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E115" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F115" s="37">
+      <c r="E115" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F115" s="41">
         <v>20</v>
       </c>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="J115" s="39"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J115" s="50"/>
     </row>
     <row r="116" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>115</v>
       </c>
-      <c r="B116" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D116" s="35" t="s">
+      <c r="B116" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E116" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F116" s="37">
+      <c r="E116" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" s="41">
         <v>8</v>
       </c>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J116" s="39"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J116" s="50"/>
     </row>
     <row r="117" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>116</v>
       </c>
-      <c r="B117" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C117" s="46" t="s">
+      <c r="B117" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D117" s="35" t="s">
+      <c r="D117" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E117" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F117" s="37">
+      <c r="E117" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F117" s="41">
         <v>8</v>
       </c>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="J117" s="39"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="J117" s="50"/>
     </row>
     <row r="118" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>117</v>
       </c>
-      <c r="B118" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C118" s="46" t="s">
+      <c r="B118" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D118" s="35" t="s">
+      <c r="D118" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E118" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F118" s="37">
+      <c r="E118" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F118" s="41">
         <v>10</v>
       </c>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="J118" s="39"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="J118" s="50"/>
     </row>
     <row r="119" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>118</v>
       </c>
-      <c r="B119" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C119" s="46" t="s">
+      <c r="B119" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E119" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F119" s="37">
+      <c r="E119" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F119" s="41">
         <v>6</v>
       </c>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="I119" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="J119" s="39"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="I119" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="J119" s="50"/>
     </row>
     <row r="120" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>119</v>
       </c>
-      <c r="B120" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C120" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D120" s="35" t="s">
+      <c r="B120" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D120" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E120" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F120" s="37">
+      <c r="E120" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F120" s="41">
         <v>6</v>
       </c>
-      <c r="G120" s="42"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="J120" s="39"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="J120" s="50"/>
     </row>
     <row r="121" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>120</v>
       </c>
-      <c r="B121" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C121" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D121" s="35" t="s">
+      <c r="B121" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D121" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E121" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F121" s="37">
+      <c r="E121" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F121" s="41">
         <v>10</v>
       </c>
-      <c r="G121" s="42"/>
-      <c r="H121" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="I121" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="J121" s="39"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="I121" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J121" s="50"/>
     </row>
     <row r="122" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>121</v>
       </c>
-      <c r="B122" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C122" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D122" s="35" t="s">
+      <c r="B122" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D122" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E122" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F122" s="37">
+      <c r="E122" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F122" s="41">
         <v>8</v>
       </c>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="J122" s="39"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="J122" s="50"/>
     </row>
     <row r="123" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>122</v>
       </c>
-      <c r="B123" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C123" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D123" s="35" t="s">
+      <c r="B123" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D123" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E123" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F123" s="37">
+      <c r="E123" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F123" s="41">
         <v>6</v>
       </c>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="J123" s="47"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="44"/>
+      <c r="I123" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="J123" s="54"/>
     </row>
     <row r="124" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>123</v>
       </c>
-      <c r="B124" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C124" s="46" t="s">
+      <c r="B124" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C124" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D124" s="35" t="s">
+      <c r="D124" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E124" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F124" s="37">
+      <c r="E124" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F124" s="41">
         <v>10</v>
       </c>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="J124" s="47"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="44"/>
+      <c r="I124" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="J124" s="54"/>
     </row>
     <row r="125" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>124</v>
       </c>
-      <c r="B125" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C125" s="46" t="s">
+      <c r="B125" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D125" s="35" t="s">
+      <c r="D125" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E125" s="36" t="s">
+      <c r="E125" s="43" t="s">
         <v>31</v>
       </c>
       <c r="F125" s="48">
         <v>3</v>
       </c>
-      <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
-      <c r="I125" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="J125" s="47"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="44"/>
+      <c r="I125" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="J125" s="54"/>
     </row>
     <row r="126" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>125</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D126" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D126" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E126" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F126" s="37">
+      <c r="E126" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" s="41">
         <v>6</v>
       </c>
-      <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
-      <c r="I126" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="J126" s="47"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="J126" s="54"/>
     </row>
     <row r="127" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="23">
         <v>126</v>
       </c>
-      <c r="B127" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" s="46" t="s">
+      <c r="B127" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C127" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D127" s="35" t="s">
+      <c r="D127" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E127" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F127" s="37">
+      <c r="E127" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F127" s="41">
         <v>8</v>
       </c>
-      <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="J127" s="47"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="44"/>
+      <c r="I127" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="J127" s="54"/>
     </row>
     <row r="128" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="23">
         <v>127</v>
       </c>
-      <c r="B128" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="C128" s="46" t="s">
+      <c r="B128" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D128" s="35" t="s">
+      <c r="D128" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E128" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F128" s="37">
+      <c r="E128" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F128" s="41">
         <v>10</v>
       </c>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="J128" s="47"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="44"/>
+      <c r="I128" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="J128" s="54"/>
     </row>
     <row r="129" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="23">
         <v>128</v>
       </c>
-      <c r="B129" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C129" s="46" t="s">
+      <c r="B129" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D129" s="35" t="s">
+      <c r="D129" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E129" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F129" s="37">
+      <c r="E129" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F129" s="41">
         <v>2</v>
       </c>
-      <c r="G129" s="42"/>
-      <c r="H129" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="I129" s="42"/>
-      <c r="J129" s="47"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="I129" s="44"/>
+      <c r="J129" s="54"/>
     </row>
     <row r="130" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="23">
         <v>129</v>
       </c>
-      <c r="B130" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C130" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D130" s="35" t="s">
+      <c r="B130" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C130" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E130" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F130" s="37">
+      <c r="E130" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F130" s="41">
         <v>3</v>
       </c>
-      <c r="G130" s="42"/>
-      <c r="H130" s="42"/>
-      <c r="I130" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="J130" s="47"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="44"/>
+      <c r="I130" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="J130" s="54"/>
     </row>
     <row r="131" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="23">
         <v>130</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C131" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D131" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C131" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D131" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E131" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F131" s="37">
+      <c r="E131" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F131" s="41">
         <v>3</v>
       </c>
-      <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
-      <c r="I131" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="J131" s="47"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="44"/>
+      <c r="I131" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="J131" s="54"/>
     </row>
     <row r="132" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="23">
         <v>131</v>
       </c>
-      <c r="B132" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C132" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D132" s="35" t="s">
+      <c r="B132" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D132" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E132" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F132" s="37">
+      <c r="E132" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F132" s="41">
         <v>6</v>
       </c>
-      <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="J132" s="47"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="44"/>
+      <c r="I132" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="J132" s="54"/>
     </row>
     <row r="133" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="23">
         <v>132</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C133" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D133" s="35" t="s">
+      <c r="D133" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E133" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F133" s="37">
+      <c r="E133" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F133" s="41">
         <v>4</v>
       </c>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="J133" s="47"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="44"/>
+      <c r="I133" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="J133" s="54"/>
     </row>
     <row r="134" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="23">
         <v>133</v>
       </c>
-      <c r="B134" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C134" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D134" s="35" t="s">
+      <c r="B134" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E134" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F134" s="37">
+      <c r="E134" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F134" s="41">
         <v>7</v>
       </c>
-      <c r="G134" s="42"/>
-      <c r="H134" s="42"/>
-      <c r="I134" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="J134" s="47"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="44"/>
+      <c r="I134" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="J134" s="54"/>
     </row>
     <row r="135" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>134</v>
       </c>
-      <c r="B135" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="C135" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D135" s="35" t="s">
+      <c r="B135" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D135" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E135" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F135" s="37">
+      <c r="E135" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F135" s="41">
         <v>3</v>
       </c>
-      <c r="G135" s="42"/>
-      <c r="H135" s="42"/>
-      <c r="I135" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="J135" s="47"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="44"/>
+      <c r="I135" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="J135" s="54"/>
     </row>
     <row r="136" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>135</v>
       </c>
-      <c r="B136" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C136" s="46" t="s">
+      <c r="B136" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D136" s="35" t="s">
+      <c r="D136" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E136" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F136" s="37">
+      <c r="E136" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F136" s="41">
         <v>6</v>
       </c>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="J136" s="47"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="44"/>
+      <c r="I136" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="J136" s="54"/>
     </row>
     <row r="137" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="23">
         <v>136</v>
       </c>
-      <c r="B137" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C137" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D137" s="35" t="s">
+      <c r="B137" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D137" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E137" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F137" s="37">
+      <c r="E137" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F137" s="41">
         <v>6</v>
       </c>
-      <c r="G137" s="42"/>
-      <c r="H137" s="42"/>
-      <c r="I137" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="J137" s="47"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="44"/>
+      <c r="I137" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="J137" s="54"/>
     </row>
     <row r="138" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="23">
         <v>137</v>
       </c>
-      <c r="B138" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="C138" s="46" t="s">
+      <c r="B138" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C138" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D138" s="35" t="s">
+      <c r="D138" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E138" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F138" s="37">
+      <c r="E138" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F138" s="41">
         <v>14</v>
       </c>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="J138" s="47"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="44"/>
+      <c r="I138" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="J138" s="54"/>
     </row>
     <row r="139" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="23">
         <v>138</v>
       </c>
-      <c r="B139" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C139" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D139" s="35" t="s">
+      <c r="B139" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E139" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F139" s="37">
+      <c r="E139" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F139" s="41">
         <v>6</v>
       </c>
-      <c r="G139" s="42"/>
-      <c r="H139" s="42"/>
-      <c r="I139" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="J139" s="47"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="J139" s="54"/>
     </row>
     <row r="140" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30">
         <v>153</v>
       </c>
-      <c r="B140" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="C140" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D140" s="35" t="s">
+      <c r="B140" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C140" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E140" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F140" s="37">
+      <c r="E140" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F140" s="41">
         <v>10</v>
       </c>
-      <c r="G140" s="42"/>
-      <c r="H140" s="42"/>
-      <c r="I140" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="J140" s="47"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="44"/>
+      <c r="I140" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="J140" s="54"/>
     </row>
     <row r="141" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="23">
         <v>140</v>
       </c>
-      <c r="B141" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C141" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D141" s="35" t="s">
+      <c r="B141" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C141" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E141" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F141" s="37">
+      <c r="E141" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F141" s="41">
         <v>4</v>
       </c>
-      <c r="G141" s="42"/>
-      <c r="H141" s="42"/>
-      <c r="I141" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="J141" s="47"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="44"/>
+      <c r="I141" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="J141" s="54"/>
     </row>
     <row r="142" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="23">
         <v>141</v>
       </c>
-      <c r="B142" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C142" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D142" s="35" t="s">
+      <c r="B142" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D142" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E142" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F142" s="37">
+      <c r="E142" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F142" s="41">
         <v>6</v>
       </c>
-      <c r="G142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="J142" s="47"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="44"/>
+      <c r="I142" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="J142" s="54"/>
     </row>
     <row r="143" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>142</v>
       </c>
-      <c r="B143" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D143" s="35" t="s">
+      <c r="B143" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E143" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F143" s="37">
+      <c r="E143" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F143" s="41">
         <v>6</v>
       </c>
-      <c r="G143" s="42"/>
-      <c r="H143" s="42"/>
-      <c r="I143" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="J143" s="47"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="44"/>
+      <c r="I143" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="J143" s="54"/>
     </row>
     <row r="144" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>143</v>
       </c>
-      <c r="B144" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C144" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D144" s="35" t="s">
+      <c r="B144" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E144" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F144" s="37">
+      <c r="E144" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F144" s="41">
         <v>5</v>
       </c>
-      <c r="G144" s="42"/>
-      <c r="H144" s="42"/>
-      <c r="I144" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="J144" s="47"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="44"/>
+      <c r="I144" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="J144" s="54"/>
     </row>
     <row r="145" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>144</v>
       </c>
-      <c r="B145" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C145" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D145" s="35" t="s">
+      <c r="B145" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="C145" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E145" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F145" s="37">
+      <c r="E145" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F145" s="41">
         <v>5</v>
       </c>
-      <c r="G145" s="42"/>
-      <c r="H145" s="42"/>
-      <c r="I145" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="J145" s="47"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="44"/>
+      <c r="I145" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="J145" s="54"/>
     </row>
     <row r="146" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>145</v>
       </c>
-      <c r="B146" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C146" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D146" s="35" t="s">
+      <c r="B146" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C146" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D146" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E146" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F146" s="37">
+      <c r="E146" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F146" s="41">
         <v>9</v>
       </c>
-      <c r="G146" s="42"/>
-      <c r="H146" s="42"/>
-      <c r="I146" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="J146" s="47"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="44"/>
+      <c r="I146" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="J146" s="54"/>
     </row>
     <row r="147" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>146</v>
       </c>
-      <c r="B147" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C147" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D147" s="35" t="s">
+      <c r="B147" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C147" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D147" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E147" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F147" s="37">
+      <c r="E147" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F147" s="41">
         <v>8</v>
       </c>
-      <c r="G147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="J147" s="47"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="44"/>
+      <c r="I147" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="J147" s="54"/>
     </row>
     <row r="148" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>147</v>
       </c>
-      <c r="B148" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="C148" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D148" s="35" t="s">
+      <c r="B148" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="C148" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D148" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E148" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F148" s="37">
+      <c r="E148" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F148" s="41">
         <v>12</v>
       </c>
-      <c r="G148" s="42"/>
-      <c r="H148" s="42"/>
-      <c r="I148" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="J148" s="47"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="44"/>
+      <c r="I148" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="J148" s="54"/>
     </row>
     <row r="149" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>148</v>
       </c>
-      <c r="B149" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="C149" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D149" s="35" t="s">
+      <c r="B149" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D149" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E149" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F149" s="37">
+      <c r="E149" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F149" s="41">
         <v>8</v>
       </c>
-      <c r="G149" s="42"/>
-      <c r="H149" s="42"/>
-      <c r="I149" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="J149" s="47"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="44"/>
+      <c r="I149" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="J149" s="54"/>
     </row>
     <row r="150" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>149</v>
       </c>
-      <c r="B150" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="C150" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D150" s="35" t="s">
+      <c r="B150" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="C150" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D150" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E150" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F150" s="37">
+      <c r="E150" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F150" s="41">
         <v>10</v>
       </c>
-      <c r="G150" s="42"/>
-      <c r="H150" s="42"/>
-      <c r="I150" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="J150" s="47"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="44"/>
+      <c r="I150" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="J150" s="54"/>
     </row>
     <row r="151" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>150</v>
       </c>
-      <c r="B151" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C151" s="46" t="s">
+      <c r="B151" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D151" s="35" t="s">
+      <c r="D151" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E151" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F151" s="37">
+      <c r="E151" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F151" s="41">
         <v>8</v>
       </c>
-      <c r="G151" s="42"/>
-      <c r="H151" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="I151" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="J151" s="47"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="I151" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="J151" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataset/Tasks.xlsx
+++ b/dataset/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\llm\WebAppEval\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70592FC9-8ACA-4ABC-AEE3-32669C597346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B19A6F-7121-4B93-9D6A-5B048AABD655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="402">
   <si>
     <t>Description</t>
   </si>
@@ -585,9 +585,6 @@
   </si>
   <si>
     <t>Assign account.test.1@mynes.com as the manager of account.test.3@mynes.com.</t>
-  </si>
-  <si>
-    <t>Display all leave requests currently marked as Requested.</t>
   </si>
   <si>
     <t>Create a new project named :  "Demo Website"</t>
@@ -2052,12 +2049,257 @@
   "description": "Verify the shopping cart contains exactly three items: Deirdre Relaxed-Fit Capri, Sylvia Capri, and Aeon Capri."
 }</t>
   </si>
+  <si>
+    <t>Display all my leave requests currently marked as Requested.</t>
+  </si>
+  <si>
+    <t>Set a yearly cap of 5 days for 'paternity leave' for all employees in this full year</t>
+  </si>
+  <si>
+    <t>{
+  "url": "__LMS__/requests/balance",
+  "dom_extractor": "[...document.querySelectorAll('#balance tbody tr')].every(r =&gt; r.cells[[...document.querySelectorAll('#balance thead th')].findIndex(th =&gt; th.innerText.trim() === 'paternity leave')]?.innerText.trim() === '5') ? '1' : '0'",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify that the paternity leave yearly cap is set to 5 days for all employees"
+}</t>
+  </si>
+  <si>
+    <t>Create a 'Sick leave' request for employee 'account.test.1@mynes.com' on Jan, 3 2026</t>
+  </si>
+  <si>
+    <t>{
+  "url": "__LMS__/hr/leaves/2",
+  "dom_extractor": "[...document.querySelectorAll('tbody tr')].some(r =&gt; r.innerText.includes('01/03/2026') &amp;&amp; r.innerText.includes('Sick leave')) ? '1' : '0'",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify that a Sick leave request exists on 01/03/2026"
+}</t>
+  </si>
+  <si>
+    <t>Create a new product attribute named "Fabric" using Dropdown as the Catalog Input Type, with the options Cotton, Wool, and Polyester. After saving, reopen the attribute and review its properties.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "return (() =&gt; { const values = [...document.querySelectorAll('#manage-options-panel tbody input[name^=\"option[value]\"][name$=\"[0]\"]')].map(i =&gt; i.value.trim()); const expected = ['Cotton','Wool','Polyester']; return (values.length === 3 &amp;&amp; expected.every(v =&gt; values.includes(v))) ? '1' : '0'; })();",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify the attribute contains exactly three options: Cotton, Wool, Polyester"
+}</t>
+  </si>
+  <si>
+    <t>Create a customer group named "Wholesale-5" and create a catalog price rule that applies a 5% discount to this customer group. After saving, reopen this catalog price rule, expand the Actions section, and review the customer group and discount details.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "(() =&gt; { const simpleAction = document.querySelector('select[name=\"simple_action\"]')?.value; const discountAmount = document.querySelector('input[name=\"discount_amount\"]')?.value || ''; const selectedGroups = [...document.querySelector('select[name=\"customer_group_ids\"]')?.selectedOptions || []].map(o =&gt; o.textContent.trim()); return (simpleAction === 'by_percent' &amp;&amp; discountAmount.includes('5') &amp;&amp; selectedGroups.includes('Wholesale-5')) ? '1' : '0'; })()",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify discount rule uses by_percent, discount amount contains 5, and Wholesale-5 customer group is selected"
+}</t>
+  </si>
+  <si>
+    <t>Create a new attribute set named "CustomSet01" based on the Default attribute set. Then add the unassigned attribute "color" to this attribute set under the Product Details group. After saving, reopen this attribute set and review its details.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "(() =&gt; document.querySelector('input[name=\"attribute_set_name\"]')?.value?.trim() === 'CustomSet01' &amp;&amp; [...document.querySelectorAll('li')].some(li =&gt; li.textContent.includes('Product Details') &amp;&amp; li.textContent.toLowerCase().includes('color')) ? '1' : '0')()",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify attribute set name is CustomSet01 and Color exists under Product Details"
+}</t>
+  </si>
+  <si>
+    <t>Create a new admin user with the email "admin.test.8@mynes.com
+". In the Current User Identity Verification section, enter the current admin password "Admin@123" to confirm the action.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "(() =&gt; [...document.querySelectorAll('tbody tr')].some(tr =&gt; tr.querySelector('[data-column=\"email\"]')?.textContent.trim() === 'admin.test.8@mynes.com' &amp;&amp; tr.querySelector('[data-column=\"role_name\"]')?.textContent.trim() === 'Administrators') ? '1' : '0')()",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify the new admin user with email admin.test.8@mynes.com appears in the Users grid and has Administrators role"
+}</t>
+  </si>
+  <si>
+    <t>Create a new CMS block named "Homepage Promo Banner" with identifier "homepage-promo-banner". Set the content HTML to "&lt;p&gt;Spring Sale Up to 30%&lt;/p&gt;". After saving, reopen this CMS block and review its details.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "document.querySelector('.placeholder-html-code')?.innerText.trim()",
+  "match_type": "contains",
+  "match_value": "Spring Sale Up to 30%",
+  "description": "Verify PageBuilder HTML content contains 'Spring Sale Up to 30%'"
+}</t>
+  </si>
+  <si>
+    <t>Refresh the lifetime statistics for all reports, then view the Invoice Report for the date range from March 10, 2025 to March 31, 2025.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "((document.querySelector('#sales_report_from')?.value.trim() === '3/10/25') &amp;&amp; (document.querySelector('#sales_report_to')?.value.trim() === '3/31/25') &amp;&amp; [...document.querySelectorAll('tr.totals')].some(r =&gt; r.cells[1]?.innerText.trim() === '2' &amp;&amp; r.cells[3]?.innerText.trim() === '$76.03')) ? '1' : '0'",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify invoice report for March 10–31, 2025 has total orders = 2 and total invoiced = $76.03."
+}</t>
+  </si>
+  <si>
+    <t>Create an API integration named "CatalogAPIOnly" with email "account.test.2@mynes.com" and confirm password "Admin@123".
+Grant access to Catalog API resources only, then open the integration details to review API Resources.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "[...document.querySelectorAll('tbody tr')].some(tr =&gt; tr.querySelector('[data-column=\"name\"]')?.innerText.trim() === 'CatalogAPIOnly') ? '1' : '0'",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify there is an API integration named CatalogAPIOnly"
+}</t>
+  </si>
+  <si>
+    <t>Open the Customers Orders Total report and verify the order total value on March 21, 2025.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "document.querySelector('tfoot [data-column=\"orders_sum_amount\"]')?.innerText.trim()",
+  "match_type": "contains",
+  "match_value": "29",
+  "description": "Verify total order amount is $29.00"
+}</t>
+  </si>
+  <si>
+    <t>Create a new bug in project 'Demo-Project' with subject 'Homepage Banner Not Loading', and assign it to 'Agent Merkle'.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "document.querySelector('h2')?.innerText.includes('Bug') &amp;&amp; document.querySelector('.assigned-to .value')?.innerText.includes('Agent Merkle') ? '1' : '0'",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify the issue is a Bug and assigned to Agent Merkle"
+}</t>
+  </si>
+  <si>
+    <t>Change the priority of issue #1 in project 'Demo-Project' to 'Urgent'.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "__PROJECT__/issues/1",
+  "dom_extractor": "document.querySelector('.priority .value')?.innerText.trim()",
+  "match_type": "exact",
+  "match_value": "Urgent",
+  "description": "Verify issue priority is exactly Urgent"
+}</t>
+  </si>
+  <si>
+    <t>Log 4 hours and 30 minutes of time to issue #1 in the 'Demo-Project' project with the activity 'Development'.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "__PROJECT__/projects/demo-project/time_entries",
+  "dom_extractor": "[...document.querySelectorAll('tbody tr')].some(tr =&gt; tr.querySelector('td.issue')?.innerText.includes('Bug #1') &amp;&amp; tr.querySelector('td.activity')?.innerText.trim() === 'Development' &amp;&amp; tr.querySelector('td.hours')?.innerText.trim() === '4:30') ? '1' : '0'",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify there is a time entry for Bug #1 with activity Development and logged time 4:30"
+}</t>
+  </si>
+  <si>
+    <t>Update the % Done of the time entry for issue #1 in 'Demo-Project' to 50%.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "__PROJECT__/issues/1",
+  "dom_extractor": "document.querySelector('.progress .percent')?.innerText.trim()",
+  "match_type": "exact",
+  "match_value": "50%",
+  "description": "Verify % Done of issue #1 is updated to 50%"
+}</t>
+  </si>
+  <si>
+    <t>Create a new tracker named 'Security Bug' and enable it for all projects.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "__PROJECT__/trackers",
+  "dom_extractor": "[...document.querySelectorAll('table.trackers tbody tr')].some(tr =&gt; tr.querySelector('td.name')?.innerText.trim().toLowerCase() === 'security bug') ? '1' : '0'",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify there is a tracker named Security Bug"
+}</t>
+  </si>
+  <si>
+    <t>Create a new time tracking activity named 'Bug Fixing'.</t>
+  </si>
+  <si>
+    <t>{
+  "url": "__PROJECT__/enumerations",
+  "dom_extractor": "[...document.querySelectorAll('table.enumerations tbody tr')].some(tr =&gt; tr.querySelector('td.name')?.innerText.trim() === 'Bug Fixing') ? '1' : '0'",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify there is a time tracking activity named Bug Fixing"
+}</t>
+  </si>
+  <si>
+    <t>Update my Date of Birth to Dec 31, 2000 and then save the changes, and verify the updated value</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "document.querySelector('input[data-field=\"birthday\"]')?.value",
+  "match_type": "exact",
+  "match_value": "12/31/2000",
+  "description": "Verify Date of Birth is updated to Dec 31, 2000"
+}</t>
+  </si>
+  <si>
+    <t>Add and enable custom checkbox 'Allow Remote Work' for employee Anita Olivier and save the changes</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "[...document.querySelectorAll('.o_property_field')].some(f =&gt; f.querySelector('label span')?.innerText.trim() === 'Allow Remote Work' &amp;&amp; f.querySelector('input[type=\"checkbox\"]')) ? '1' : '0'",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Verify the property 'Allow Remote Work' exists and is a checkbox"
+}</t>
+  </si>
+  <si>
+    <t>Mark the opportunity 'Modern Open Space' as Lost with reason "Budget Issue"</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "document.querySelector('.o_widget_web_ribbon .ribbon-top-right span')?.innerText.trim() === 'LOST' &amp;&amp; document.querySelector('input[id^=\"lost_reason_id\"]')?.value.trim() === 'Budget Issue' ? '1' : '0'",
+  "match_type": "exact",
+  "match_value": "1",
+  "description": "Opportunity is marked as LOST and Lost Reason is Budget Issue"
+}</t>
+  </si>
+  <si>
+    <t>Navigate to the Lost opportunities list</t>
+  </si>
+  <si>
+    <t>{
+  "url": "last",
+  "dom_extractor": "document.querySelector('.o_searchview_facet .o_facet_value')?.innerText.trim()",
+  "match_type": "exact",
+  "match_value": "Lost",
+  "description": "Lost opportunities list is displayed"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2138,13 +2380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
@@ -2200,8 +2435,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2237,6 +2488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2302,7 +2559,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2359,7 +2616,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2368,91 +2625,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2738,13 +3013,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B76D81-C372-4956-A199-F26C6CB74D23}">
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="A172" sqref="A172:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,7 +3051,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>26</v>
@@ -2795,3913 +3070,4413 @@
       <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="49">
         <v>3</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="41">
+      <c r="E3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="49">
         <v>9</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="J3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="49">
+        <v>4</v>
+      </c>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="41">
-        <v>4</v>
-      </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="41">
+      <c r="E5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="49">
         <v>12</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="49">
         <v>8</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="J6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="51">
         <v>6</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="49">
         <v>3</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="50"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="49">
+        <v>8</v>
+      </c>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="41">
-        <v>8</v>
-      </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="49">
+        <v>17</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="41">
-        <v>17</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="41">
+      <c r="E11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="49">
         <v>6</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="J11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="42" t="s">
+      <c r="B12" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="41">
+      <c r="E12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="49">
         <v>12</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49" t="s">
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="50"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="41">
+      <c r="E13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="49">
         <v>4</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="41">
+      <c r="E14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="49">
         <v>5</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="49">
+        <v>9</v>
+      </c>
+      <c r="G15" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="41">
-        <v>9</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>15</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="49">
+        <v>15</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="41">
-        <v>15</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="J16" s="50"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="42" t="s">
+      <c r="B17" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="41">
+      <c r="E17" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="49">
         <v>18</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="J17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>17</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="42" t="s">
+      <c r="B18" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="41">
+      <c r="E18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="49">
         <v>9</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="J18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="J18" s="46"/>
     </row>
     <row r="19" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="49">
+        <v>4</v>
+      </c>
+      <c r="G19" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="41">
-        <v>4</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>19</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="42" t="s">
+      <c r="C20" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="41">
+      <c r="E20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="49">
         <v>8</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="J20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>20</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="42" t="s">
+      <c r="C21" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="41">
+      <c r="E21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="49">
         <v>8</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="J21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="J21" s="46"/>
     </row>
     <row r="22" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>21</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="42" t="s">
+      <c r="C22" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="41">
+      <c r="E22" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="49">
         <v>7</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="J22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>22</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="42" t="s">
+      <c r="C23" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="49">
         <v>8</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="J23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>23</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="42" t="s">
+      <c r="C24" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="41">
+      <c r="E24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="49">
         <v>6</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="J24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="J24" s="46"/>
     </row>
     <row r="25" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>24</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="42" t="s">
+      <c r="C25" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="41">
+      <c r="E25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="49">
         <v>7</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="J25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>25</v>
       </c>
-      <c r="B26" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="42" t="s">
+      <c r="B26" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="41">
+      <c r="E26" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="49">
         <v>4</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49" t="s">
+      <c r="H26" s="50"/>
+      <c r="I26" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="50"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>26</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="42" t="s">
+      <c r="C27" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="41">
+      <c r="E27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="49">
         <v>8</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="J27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="J27" s="46"/>
     </row>
     <row r="28" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>27</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="42" t="s">
+      <c r="C28" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="41">
+      <c r="E28" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="49">
         <v>10</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="J28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>28</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="41">
+      <c r="E29" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="49">
         <v>6</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="J29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>29</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="41">
+      <c r="E30" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="49">
         <v>8</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="J30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="23">
         <v>30</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="42" t="s">
+      <c r="B31" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="41">
+      <c r="E31" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="49">
         <v>6</v>
       </c>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
-      <c r="I31" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="J31" s="50"/>
+      <c r="I31" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>31</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="42" t="s">
+      <c r="B32" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="41">
+      <c r="E32" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="49">
         <v>4</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49" t="s">
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="J32" s="50"/>
+      <c r="J32" s="46"/>
     </row>
     <row r="33" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>32</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="42" t="s">
+      <c r="B33" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="41">
+      <c r="E33" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="49">
         <v>5</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="J33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" s="46"/>
     </row>
     <row r="34" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>33</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="42" t="s">
+      <c r="C34" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="41">
+      <c r="E34" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="49">
         <v>5</v>
       </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="J34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" s="46"/>
     </row>
     <row r="35" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>34</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="42" t="s">
+      <c r="B35" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="41">
+      <c r="E35" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="49">
         <v>5</v>
       </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="J35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <v>35</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="42" t="s">
+      <c r="B36" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="41">
+      <c r="E36" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="49">
         <v>5</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="J36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="J36" s="46"/>
     </row>
     <row r="37" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="49">
         <v>14</v>
       </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49" t="s">
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="J37" s="50"/>
+      <c r="J37" s="46"/>
     </row>
     <row r="38" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>37</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="42" t="s">
+      <c r="B38" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="41">
+      <c r="E38" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="49">
         <v>7</v>
       </c>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="J38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>38</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="42" t="s">
+      <c r="C39" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="41">
+      <c r="E39" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="49">
         <v>5</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="J39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="J39" s="46"/>
     </row>
     <row r="40" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>39</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="41">
+      <c r="E40" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="49">
         <v>12</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="J40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="J40" s="46"/>
     </row>
     <row r="41" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>40</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="42" t="s">
+      <c r="C41" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="41">
+      <c r="E41" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="49">
         <v>6</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49" t="s">
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="50"/>
+      <c r="J41" s="46"/>
     </row>
     <row r="42" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>41</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="42" t="s">
+      <c r="C42" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="41">
+      <c r="E42" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="49">
         <v>7</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="J42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="J42" s="46"/>
     </row>
     <row r="43" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>42</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="42" t="s">
+      <c r="C43" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="41">
+      <c r="E43" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="49">
         <v>7</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="J43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="J43" s="46"/>
     </row>
     <row r="44" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>43</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="42" t="s">
+      <c r="C44" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" s="41">
+      <c r="E44" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="49">
         <v>16</v>
       </c>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="J44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="J44" s="46"/>
     </row>
     <row r="45" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>44</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="42" t="s">
+      <c r="C45" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="41">
+      <c r="E45" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="49">
         <v>10</v>
       </c>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="J45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="J45" s="46"/>
     </row>
     <row r="46" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>45</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="42" t="s">
+      <c r="C46" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="41">
+      <c r="E46" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="49">
         <v>8</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="J46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="J46" s="46"/>
     </row>
     <row r="47" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>46</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="42" t="s">
+      <c r="C47" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="41">
+      <c r="E47" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="49">
         <v>8</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="J47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="J47" s="46"/>
     </row>
     <row r="48" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>47</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="42" t="s">
+      <c r="C48" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="41">
+      <c r="E48" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="49">
         <v>8</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49" t="s">
-        <v>298</v>
-      </c>
-      <c r="J48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>48</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="42" t="s">
+      <c r="C49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="41">
+      <c r="E49" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="49">
         <v>18</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49" t="s">
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="J49" s="50"/>
+      <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>49</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="42" t="s">
+      <c r="C50" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="41">
+      <c r="E50" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="49">
         <v>5</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="J50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="J50" s="46"/>
     </row>
     <row r="51" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>50</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="42" t="s">
+      <c r="C51" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="41">
+      <c r="E51" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="49">
         <v>5</v>
       </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="J51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="J51" s="46"/>
     </row>
     <row r="52" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>51</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="42" t="s">
+      <c r="C52" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="41">
+      <c r="E52" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="49">
         <v>10</v>
       </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="J52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>52</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="42" t="s">
+      <c r="C53" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="41">
+      <c r="E53" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="49">
         <v>4</v>
       </c>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="J53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="J53" s="46"/>
     </row>
     <row r="54" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>53</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="42" t="s">
+      <c r="C54" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="41">
+      <c r="E54" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="49">
         <v>4</v>
       </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="J54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="J54" s="46"/>
     </row>
     <row r="55" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>54</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="42" t="s">
+      <c r="C55" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" s="41">
+      <c r="E55" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="49">
         <v>5</v>
       </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49" t="s">
-        <v>304</v>
-      </c>
-      <c r="J55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="J55" s="46"/>
     </row>
     <row r="56" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>55</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="42" t="s">
+      <c r="C56" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="41">
+      <c r="E56" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="49">
         <v>9</v>
       </c>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49" t="s">
-        <v>305</v>
-      </c>
-      <c r="J56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="J56" s="46"/>
     </row>
     <row r="57" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>56</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="42" t="s">
+      <c r="C57" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="41">
+      <c r="E57" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="49">
         <v>10</v>
       </c>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="J57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="J57" s="46"/>
     </row>
     <row r="58" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>57</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="42" t="s">
+      <c r="C58" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F58" s="41">
+      <c r="E58" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="49">
         <v>10</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="J58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>58</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="42" t="s">
+      <c r="C59" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F59" s="41">
+      <c r="E59" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="49">
         <v>8</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="J59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="J59" s="46"/>
     </row>
     <row r="60" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>59</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="42" t="s">
+      <c r="C60" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" s="41">
+      <c r="E60" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="49">
         <v>7</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="J60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="J60" s="46"/>
     </row>
     <row r="61" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>60</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="42" t="s">
+      <c r="C61" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" s="41">
+      <c r="E61" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="49">
         <v>12</v>
       </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="J61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="J61" s="46"/>
     </row>
     <row r="62" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>61</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" s="42" t="s">
+      <c r="C62" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="41">
+      <c r="E62" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="53">
         <v>8</v>
       </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="J62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="J62" s="46"/>
     </row>
     <row r="63" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>62</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="42" t="s">
+      <c r="C63" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="41">
+      <c r="E63" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="49">
         <v>7</v>
       </c>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="J63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="J63" s="46"/>
     </row>
     <row r="64" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>63</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="42" t="s">
+      <c r="C64" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="41">
+      <c r="E64" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="49">
         <v>7</v>
       </c>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="J64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="J64" s="46"/>
     </row>
     <row r="65" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>64</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="42" t="s">
+      <c r="C65" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F65" s="41">
+      <c r="E65" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="53">
         <v>8</v>
       </c>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="J65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="J65" s="46"/>
     </row>
     <row r="66" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>65</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="42" t="s">
+      <c r="C66" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F66" s="41">
+      <c r="E66" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="49">
         <v>8</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="J66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="J66" s="46"/>
     </row>
     <row r="67" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>66</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="42" t="s">
+      <c r="C67" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" s="41">
+      <c r="E67" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="49">
         <v>8</v>
       </c>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="J67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="J67" s="46"/>
     </row>
     <row r="68" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>67</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="42" t="s">
+      <c r="C68" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F68" s="41">
+      <c r="E68" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="49">
         <v>9</v>
       </c>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="J68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="J68" s="46"/>
     </row>
     <row r="69" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>68</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="42" t="s">
+      <c r="C69" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F69" s="41">
+      <c r="E69" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="49">
         <v>10</v>
       </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="J69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="J69" s="46"/>
     </row>
     <row r="70" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>69</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="42" t="s">
+      <c r="C70" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F70" s="41">
+      <c r="E70" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="49">
         <v>9</v>
       </c>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="J70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="J70" s="46"/>
     </row>
     <row r="71" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>70</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="42" t="s">
+      <c r="C71" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F71" s="41">
+      <c r="E71" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="53">
         <v>8</v>
       </c>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="J71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="J71" s="46"/>
     </row>
     <row r="72" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>71</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="42" t="s">
+      <c r="C72" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F72" s="41">
+      <c r="E72" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="53">
         <v>8</v>
       </c>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="J72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="J72" s="46"/>
     </row>
     <row r="73" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>72</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="53">
+        <v>8</v>
+      </c>
+      <c r="G73" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="C73" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F73" s="41">
-        <v>8</v>
-      </c>
-      <c r="G73" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="46"/>
     </row>
     <row r="74" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>73</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="42" t="s">
+      <c r="C74" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F74" s="41">
+      <c r="E74" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="49">
         <v>8</v>
       </c>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="J74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="J74" s="46"/>
     </row>
     <row r="75" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>74</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="42" t="s">
+      <c r="C75" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E75" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" s="41">
+      <c r="E75" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="53">
         <v>8</v>
       </c>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="J75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="J75" s="46"/>
     </row>
     <row r="76" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>75</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="42" t="s">
+      <c r="C76" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E76" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F76" s="41">
+      <c r="E76" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="49">
         <v>10</v>
       </c>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="J76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="J76" s="46"/>
     </row>
     <row r="77" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>76</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="42" t="s">
+      <c r="C77" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F77" s="41">
+      <c r="E77" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" s="49">
         <v>11</v>
       </c>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="J77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="J77" s="46"/>
     </row>
     <row r="78" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>77</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="42" t="s">
+      <c r="C78" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F78" s="41">
+      <c r="E78" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="53">
         <v>8</v>
       </c>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="J78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J78" s="46"/>
     </row>
     <row r="79" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>78</v>
       </c>
-      <c r="B79" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" s="42" t="s">
+      <c r="B79" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E79" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F79" s="41">
+      <c r="E79" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="49">
         <v>6</v>
       </c>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="J79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="J79" s="46"/>
     </row>
     <row r="80" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>79</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="42" t="s">
+      <c r="C80" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F80" s="41">
+      <c r="E80" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="49">
         <v>8</v>
       </c>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="J80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="J80" s="46"/>
     </row>
     <row r="81" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>80</v>
       </c>
-      <c r="B81" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" s="42" t="s">
+      <c r="B81" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E81" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F81" s="41">
+      <c r="E81" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="49">
         <v>6</v>
       </c>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="J81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="J81" s="46"/>
     </row>
     <row r="82" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>81</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="42" t="s">
+      <c r="C82" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E82" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F82" s="41">
+      <c r="E82" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="49">
         <v>6</v>
       </c>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="J82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="J82" s="46"/>
     </row>
     <row r="83" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>82</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C83" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="42" t="s">
+      <c r="C83" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F83" s="41">
+      <c r="E83" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="49">
         <v>8</v>
       </c>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="J83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="J83" s="46"/>
     </row>
     <row r="84" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>83</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C84" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84" s="42" t="s">
+      <c r="C84" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F84" s="41">
+      <c r="E84" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="49">
         <v>4</v>
       </c>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="J84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="J84" s="46"/>
     </row>
     <row r="85" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>84</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C85" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" s="42" t="s">
+      <c r="C85" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85" s="41">
+      <c r="E85" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="49">
         <v>4</v>
       </c>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="J85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="J85" s="46"/>
     </row>
     <row r="86" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>85</v>
       </c>
-      <c r="B86" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D86" s="42" t="s">
+      <c r="B86" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E86" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F86" s="41">
+      <c r="E86" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="49">
         <v>6</v>
       </c>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="J86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="J86" s="46"/>
     </row>
     <row r="87" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>86</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C87" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" s="42" t="s">
+      <c r="C87" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E87" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F87" s="41">
+      <c r="E87" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="49">
         <v>4</v>
       </c>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="J87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="J87" s="46"/>
     </row>
     <row r="88" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>87</v>
       </c>
-      <c r="B88" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D88" s="42" t="s">
+      <c r="B88" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E88" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" s="41">
+      <c r="E88" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="49">
         <v>5</v>
       </c>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="J88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="J88" s="46"/>
     </row>
     <row r="89" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>88</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D89" s="42" t="s">
+      <c r="C89" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F89" s="41">
+      <c r="E89" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" s="49">
         <v>5</v>
       </c>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="J89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="J89" s="46"/>
     </row>
     <row r="90" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>89</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" s="49">
+        <v>4</v>
+      </c>
+      <c r="G90" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="C90" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D90" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E90" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F90" s="41">
-        <v>4</v>
-      </c>
-      <c r="G90" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="46"/>
     </row>
     <row r="91" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>90</v>
       </c>
-      <c r="B91" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="C91" s="31" t="s">
+      <c r="B91" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C91" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D91" s="42" t="s">
+      <c r="D91" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E91" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F91" s="41">
+      <c r="E91" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="49">
         <v>3</v>
       </c>
-      <c r="G91" s="49" t="s">
+      <c r="G91" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="46"/>
     </row>
     <row r="92" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>91</v>
       </c>
-      <c r="B92" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="C92" s="31" t="s">
+      <c r="B92" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C92" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E92" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F92" s="41">
+      <c r="E92" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" s="49">
         <v>6</v>
       </c>
-      <c r="G92" s="49" t="s">
+      <c r="G92" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="46"/>
     </row>
     <row r="93" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>92</v>
       </c>
-      <c r="B93" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="C93" s="31" t="s">
+      <c r="B93" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D93" s="42" t="s">
+      <c r="D93" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E93" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F93" s="41">
+      <c r="E93" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="49">
         <v>8</v>
       </c>
-      <c r="G93" s="49" t="s">
+      <c r="G93" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="46"/>
     </row>
     <row r="94" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>93</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="49">
+        <v>6</v>
+      </c>
+      <c r="G94" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="C94" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D94" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E94" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F94" s="41">
-        <v>6</v>
-      </c>
-      <c r="G94" s="49" t="s">
-        <v>346</v>
-      </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="46"/>
     </row>
     <row r="95" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>94</v>
       </c>
-      <c r="B95" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="C95" s="31" t="s">
+      <c r="B95" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="42" t="s">
+      <c r="D95" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E95" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F95" s="41">
+      <c r="E95" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="54">
         <v>8</v>
       </c>
-      <c r="G95" s="49" t="s">
+      <c r="G95" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="50"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="46"/>
     </row>
     <row r="96" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>95</v>
       </c>
-      <c r="B96" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C96" s="31" t="s">
+      <c r="B96" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D96" s="42" t="s">
+      <c r="D96" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E96" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F96" s="41">
+      <c r="E96" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="49">
         <v>6</v>
       </c>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="J96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="J96" s="46"/>
     </row>
     <row r="97" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>96</v>
       </c>
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F97" s="53">
+        <v>4</v>
+      </c>
+      <c r="G97" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="C97" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E97" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F97" s="41">
-        <v>4</v>
-      </c>
-      <c r="G97" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49"/>
-      <c r="J97" s="50"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="46"/>
     </row>
     <row r="98" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>97</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98" s="42" t="s">
+      <c r="C98" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E98" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F98" s="41">
+      <c r="E98" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" s="49">
         <v>10</v>
       </c>
-      <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="J98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="J98" s="46"/>
     </row>
     <row r="99" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>98</v>
       </c>
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D99" s="42" t="s">
+      <c r="C99" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E99" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F99" s="41">
+      <c r="E99" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" s="53">
         <v>10</v>
       </c>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="J99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="J99" s="46"/>
     </row>
     <row r="100" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>99</v>
       </c>
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" s="53">
+        <v>6</v>
+      </c>
+      <c r="G100" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="C100" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F100" s="41">
-        <v>6</v>
-      </c>
-      <c r="G100" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="H100" s="49"/>
-      <c r="I100" s="49"/>
-      <c r="J100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="46"/>
     </row>
     <row r="101" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>100</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="42" t="s">
+      <c r="C101" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D101" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E101" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F101" s="41">
+      <c r="E101" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F101" s="49">
         <v>8</v>
       </c>
-      <c r="G101" s="44"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="J101" s="50"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="J101" s="46"/>
     </row>
     <row r="102" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>101</v>
       </c>
-      <c r="B102" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D102" s="42" t="s">
+      <c r="B102" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E102" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F102" s="41">
+      <c r="E102" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F102" s="49">
         <v>9</v>
       </c>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="J102" s="50"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="J102" s="46"/>
     </row>
     <row r="103" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>102</v>
       </c>
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103" s="49">
+        <v>14</v>
+      </c>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="C103" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D103" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E103" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F103" s="41">
-        <v>14</v>
-      </c>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="J103" s="50"/>
+      <c r="J103" s="46"/>
     </row>
     <row r="104" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>103</v>
       </c>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F104" s="49">
+        <v>7</v>
+      </c>
+      <c r="G104" s="55"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C104" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D104" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E104" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F104" s="41">
-        <v>7</v>
-      </c>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="J104" s="50"/>
+      <c r="J104" s="46"/>
     </row>
     <row r="105" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>104</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" s="49">
+        <v>8</v>
+      </c>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="C105" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D105" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E105" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F105" s="41">
-        <v>8</v>
-      </c>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="J105" s="50"/>
+      <c r="J105" s="46"/>
     </row>
     <row r="106" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>105</v>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C106" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D106" s="42" t="s">
+      <c r="C106" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D106" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E106" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F106" s="41">
+      <c r="E106" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F106" s="49">
         <v>5</v>
       </c>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="I106" s="44"/>
-      <c r="J106" s="50"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="I106" s="55"/>
+      <c r="J106" s="46"/>
     </row>
     <row r="107" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>106</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C107" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D107" s="42" t="s">
+      <c r="C107" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D107" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E107" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F107" s="41">
+      <c r="F107" s="49">
         <v>5</v>
       </c>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="I107" s="44"/>
-      <c r="J107" s="50"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="I107" s="55"/>
+      <c r="J107" s="46"/>
     </row>
     <row r="108" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>107</v>
       </c>
-      <c r="B108" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D108" s="42" t="s">
+      <c r="B108" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E108" s="43" t="s">
+      <c r="E108" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F108" s="41">
+      <c r="F108" s="49">
         <v>16</v>
       </c>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
-      <c r="I108" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="J108" s="50"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="J108" s="46"/>
     </row>
     <row r="109" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>108</v>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="49">
+        <v>6</v>
+      </c>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C109" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D109" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E109" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F109" s="41">
-        <v>6</v>
-      </c>
-      <c r="G109" s="44"/>
-      <c r="H109" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="I109" s="44"/>
-      <c r="J109" s="53"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="47"/>
     </row>
     <row r="110" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>109</v>
       </c>
-      <c r="B110" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="32" t="s">
+      <c r="B110" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D110" s="42" t="s">
+      <c r="D110" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E110" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F110" s="41">
+      <c r="E110" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F110" s="49">
         <v>7</v>
       </c>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="J110" s="53"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="J110" s="47"/>
     </row>
     <row r="111" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>110</v>
       </c>
-      <c r="B111" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C111" s="33" t="s">
+      <c r="B111" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D111" s="42" t="s">
+      <c r="D111" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E111" s="43" t="s">
+      <c r="E111" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F111" s="41">
+      <c r="F111" s="49">
         <v>1</v>
       </c>
-      <c r="G111" s="44"/>
-      <c r="H111" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="I111" s="44"/>
-      <c r="J111" s="50"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="I111" s="55"/>
+      <c r="J111" s="46"/>
     </row>
     <row r="112" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>111</v>
       </c>
-      <c r="B112" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C112" s="34" t="s">
+      <c r="B112" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="42" t="s">
+      <c r="D112" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E112" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F112" s="41">
+      <c r="E112" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F112" s="49">
         <v>6</v>
       </c>
-      <c r="G112" s="44"/>
-      <c r="H112" s="44" t="s">
+      <c r="G112" s="55"/>
+      <c r="H112" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="I112" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="I112" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="J112" s="50"/>
+      <c r="J112" s="46"/>
     </row>
     <row r="113" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>112</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F113" s="49">
+        <v>7</v>
+      </c>
+      <c r="G113" s="55"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="C113" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D113" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F113" s="41">
-        <v>7</v>
-      </c>
-      <c r="G113" s="44"/>
-      <c r="H113" s="44"/>
-      <c r="I113" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="J113" s="50"/>
+      <c r="J113" s="46"/>
     </row>
     <row r="114" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>113</v>
       </c>
-      <c r="B114" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C114" s="34" t="s">
+      <c r="B114" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D114" s="42" t="s">
+      <c r="D114" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E114" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F114" s="41">
+      <c r="E114" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114" s="49">
         <v>10</v>
       </c>
-      <c r="G114" s="44"/>
-      <c r="H114" s="44"/>
-      <c r="I114" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="J114" s="50"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="J114" s="46"/>
     </row>
     <row r="115" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>114</v>
       </c>
-      <c r="B115" s="37" t="s">
+      <c r="B115" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F115" s="49">
+        <v>20</v>
+      </c>
+      <c r="G115" s="55"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="C115" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D115" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E115" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F115" s="41">
-        <v>20</v>
-      </c>
-      <c r="G115" s="44"/>
-      <c r="H115" s="44"/>
-      <c r="I115" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J115" s="50"/>
+      <c r="J115" s="46"/>
     </row>
     <row r="116" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>115</v>
       </c>
-      <c r="B116" s="36" t="s">
+      <c r="B116" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C116" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D116" s="42" t="s">
+      <c r="C116" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E116" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F116" s="41">
+      <c r="E116" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" s="49">
         <v>8</v>
       </c>
-      <c r="G116" s="44"/>
-      <c r="H116" s="44"/>
-      <c r="I116" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="J116" s="50"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="J116" s="46"/>
     </row>
     <row r="117" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>116</v>
       </c>
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F117" s="49">
+        <v>8</v>
+      </c>
+      <c r="G117" s="55"/>
+      <c r="H117" s="55"/>
+      <c r="I117" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C117" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D117" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F117" s="41">
-        <v>8</v>
-      </c>
-      <c r="G117" s="44"/>
-      <c r="H117" s="44"/>
-      <c r="I117" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="J117" s="50"/>
+      <c r="J117" s="46"/>
     </row>
     <row r="118" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>117</v>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C118" s="34" t="s">
+      <c r="C118" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D118" s="42" t="s">
+      <c r="D118" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E118" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F118" s="41">
+      <c r="E118" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F118" s="49">
         <v>10</v>
       </c>
-      <c r="G118" s="44"/>
-      <c r="H118" s="44"/>
-      <c r="I118" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="J118" s="50"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="J118" s="46"/>
     </row>
     <row r="119" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>118</v>
       </c>
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C119" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D119" s="42" t="s">
+      <c r="D119" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E119" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F119" s="41">
+      <c r="E119" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F119" s="49">
         <v>6</v>
       </c>
-      <c r="G119" s="44"/>
-      <c r="H119" s="44" t="s">
+      <c r="G119" s="55"/>
+      <c r="H119" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="I119" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="I119" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="J119" s="50"/>
+      <c r="J119" s="46"/>
     </row>
     <row r="120" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>119</v>
       </c>
-      <c r="B120" s="36" t="s">
+      <c r="B120" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C120" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D120" s="42" t="s">
+      <c r="C120" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D120" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E120" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F120" s="41">
+      <c r="E120" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F120" s="49">
         <v>6</v>
       </c>
-      <c r="G120" s="44"/>
-      <c r="H120" s="44"/>
-      <c r="I120" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="J120" s="50"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="J120" s="46"/>
     </row>
     <row r="121" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>120</v>
       </c>
-      <c r="B121" s="36" t="s">
+      <c r="B121" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C121" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D121" s="42" t="s">
+      <c r="C121" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D121" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E121" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F121" s="41">
+      <c r="E121" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F121" s="49">
         <v>10</v>
       </c>
-      <c r="G121" s="44"/>
-      <c r="H121" s="44" t="s">
+      <c r="G121" s="55"/>
+      <c r="H121" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="I121" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="I121" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="J121" s="50"/>
+      <c r="J121" s="46"/>
     </row>
     <row r="122" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>121</v>
       </c>
-      <c r="B122" s="36" t="s">
+      <c r="B122" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C122" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D122" s="42" t="s">
+      <c r="C122" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D122" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E122" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F122" s="41">
+      <c r="E122" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F122" s="49">
         <v>8</v>
       </c>
-      <c r="G122" s="44"/>
-      <c r="H122" s="44"/>
-      <c r="I122" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="J122" s="50"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="J122" s="46"/>
     </row>
     <row r="123" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>122</v>
       </c>
-      <c r="B123" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="C123" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D123" s="42" t="s">
+      <c r="B123" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D123" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E123" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F123" s="41">
+      <c r="E123" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F123" s="49">
         <v>6</v>
       </c>
-      <c r="G123" s="44"/>
-      <c r="H123" s="44"/>
-      <c r="I123" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="J123" s="54"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="J123" s="48"/>
     </row>
     <row r="124" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>123</v>
       </c>
-      <c r="B124" s="35" t="s">
+      <c r="B124" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F124" s="49">
+        <v>10</v>
+      </c>
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="C124" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D124" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E124" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F124" s="41">
-        <v>10</v>
-      </c>
-      <c r="G124" s="44"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="J124" s="54"/>
+      <c r="J124" s="48"/>
     </row>
     <row r="125" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>124</v>
       </c>
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F125" s="56">
+        <v>3</v>
+      </c>
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C125" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D125" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E125" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F125" s="48">
-        <v>3</v>
-      </c>
-      <c r="G125" s="44"/>
-      <c r="H125" s="44"/>
-      <c r="I125" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="J125" s="54"/>
+      <c r="J125" s="48"/>
     </row>
     <row r="126" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>125</v>
       </c>
-      <c r="B126" s="28" t="s">
+      <c r="B126" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C126" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D126" s="42" t="s">
+      <c r="C126" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D126" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E126" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F126" s="41">
+      <c r="E126" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" s="49">
         <v>6</v>
       </c>
-      <c r="G126" s="44"/>
-      <c r="H126" s="44"/>
-      <c r="I126" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="J126" s="54"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="J126" s="48"/>
     </row>
     <row r="127" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="23">
         <v>126</v>
       </c>
-      <c r="B127" s="39" t="s">
+      <c r="B127" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F127" s="49">
+        <v>8</v>
+      </c>
+      <c r="G127" s="55"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="C127" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D127" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E127" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F127" s="41">
-        <v>8</v>
-      </c>
-      <c r="G127" s="44"/>
-      <c r="H127" s="44"/>
-      <c r="I127" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="J127" s="54"/>
+      <c r="J127" s="48"/>
     </row>
     <row r="128" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="23">
         <v>127</v>
       </c>
-      <c r="B128" s="45" t="s">
+      <c r="B128" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F128" s="49">
+        <v>10</v>
+      </c>
+      <c r="G128" s="55"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="C128" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D128" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F128" s="41">
-        <v>10</v>
-      </c>
-      <c r="G128" s="44"/>
-      <c r="H128" s="44"/>
-      <c r="I128" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="J128" s="54"/>
+      <c r="J128" s="48"/>
     </row>
     <row r="129" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="23">
         <v>128</v>
       </c>
-      <c r="B129" s="46" t="s">
+      <c r="B129" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="34" t="s">
+      <c r="C129" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D129" s="42" t="s">
+      <c r="D129" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E129" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F129" s="41">
+      <c r="E129" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F129" s="49">
         <v>2</v>
       </c>
-      <c r="G129" s="44"/>
-      <c r="H129" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="I129" s="44"/>
-      <c r="J129" s="54"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="I129" s="55"/>
+      <c r="J129" s="48"/>
     </row>
     <row r="130" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="23">
         <v>129</v>
       </c>
-      <c r="B130" s="40" t="s">
+      <c r="B130" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C130" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D130" s="42" t="s">
+      <c r="C130" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E130" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F130" s="41">
+      <c r="E130" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F130" s="49">
         <v>3</v>
       </c>
-      <c r="G130" s="44"/>
-      <c r="H130" s="44"/>
-      <c r="I130" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="J130" s="54"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="J130" s="48"/>
     </row>
     <row r="131" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="23">
         <v>130</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="B131" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C131" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D131" s="42" t="s">
+      <c r="C131" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D131" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E131" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F131" s="41">
+      <c r="E131" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F131" s="49">
         <v>3</v>
       </c>
-      <c r="G131" s="44"/>
-      <c r="H131" s="44"/>
-      <c r="I131" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="J131" s="54"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="55"/>
+      <c r="I131" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="J131" s="48"/>
     </row>
     <row r="132" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="23">
         <v>131</v>
       </c>
-      <c r="B132" s="46" t="s">
+      <c r="B132" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F132" s="49">
+        <v>6</v>
+      </c>
+      <c r="G132" s="55"/>
+      <c r="H132" s="55"/>
+      <c r="I132" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="C132" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D132" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E132" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F132" s="41">
-        <v>6</v>
-      </c>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="J132" s="54"/>
+      <c r="J132" s="48"/>
     </row>
     <row r="133" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="23">
         <v>132</v>
       </c>
-      <c r="B133" s="29" t="s">
+      <c r="B133" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C133" s="34" t="s">
+      <c r="C133" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D133" s="42" t="s">
+      <c r="D133" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E133" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F133" s="41">
+      <c r="E133" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F133" s="49">
         <v>4</v>
       </c>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="J133" s="54"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="J133" s="48"/>
     </row>
     <row r="134" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="23">
         <v>133</v>
       </c>
-      <c r="B134" s="46" t="s">
+      <c r="B134" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="C134" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D134" s="42" t="s">
+      <c r="C134" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E134" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F134" s="41">
+      <c r="E134" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F134" s="49">
         <v>7</v>
       </c>
-      <c r="G134" s="44"/>
-      <c r="H134" s="44"/>
-      <c r="I134" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="J134" s="54"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="55"/>
+      <c r="I134" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="J134" s="48"/>
     </row>
     <row r="135" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>134</v>
       </c>
-      <c r="B135" s="47" t="s">
+      <c r="B135" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F135" s="49">
+        <v>3</v>
+      </c>
+      <c r="G135" s="55"/>
+      <c r="H135" s="55"/>
+      <c r="I135" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="C135" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D135" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E135" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F135" s="41">
-        <v>3</v>
-      </c>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
-      <c r="I135" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="J135" s="54"/>
+      <c r="J135" s="48"/>
     </row>
     <row r="136" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>135</v>
       </c>
-      <c r="B136" s="47" t="s">
+      <c r="B136" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F136" s="49">
+        <v>6</v>
+      </c>
+      <c r="G136" s="55"/>
+      <c r="H136" s="55"/>
+      <c r="I136" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="C136" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D136" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E136" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F136" s="41">
-        <v>6</v>
-      </c>
-      <c r="G136" s="44"/>
-      <c r="H136" s="44"/>
-      <c r="I136" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="J136" s="54"/>
+      <c r="J136" s="48"/>
     </row>
     <row r="137" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="23">
         <v>136</v>
       </c>
-      <c r="B137" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C137" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D137" s="42" t="s">
+      <c r="B137" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D137" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E137" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F137" s="41">
+      <c r="E137" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F137" s="49">
         <v>6</v>
       </c>
-      <c r="G137" s="44"/>
-      <c r="H137" s="44"/>
-      <c r="I137" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="J137" s="54"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="55"/>
+      <c r="I137" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="J137" s="48"/>
     </row>
     <row r="138" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="23">
         <v>137</v>
       </c>
-      <c r="B138" s="46" t="s">
+      <c r="B138" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F138" s="49">
+        <v>14</v>
+      </c>
+      <c r="G138" s="55"/>
+      <c r="H138" s="55"/>
+      <c r="I138" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="C138" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D138" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E138" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F138" s="41">
-        <v>14</v>
-      </c>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="J138" s="54"/>
+      <c r="J138" s="48"/>
     </row>
     <row r="139" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="23">
         <v>138</v>
       </c>
-      <c r="B139" s="46" t="s">
+      <c r="B139" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D139" s="42" t="s">
+      <c r="C139" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E139" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F139" s="41">
+      <c r="E139" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F139" s="49">
         <v>6</v>
       </c>
-      <c r="G139" s="44"/>
-      <c r="H139" s="44"/>
-      <c r="I139" s="44" t="s">
+      <c r="G139" s="55"/>
+      <c r="H139" s="55"/>
+      <c r="I139" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="J139" s="48"/>
+    </row>
+    <row r="140" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="23">
+        <v>139</v>
+      </c>
+      <c r="B140" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="J139" s="54"/>
-    </row>
-    <row r="140" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="30">
-        <v>153</v>
-      </c>
-      <c r="B140" s="35" t="s">
+      <c r="C140" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E140" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F140" s="58">
+        <v>10</v>
+      </c>
+      <c r="G140" s="59"/>
+      <c r="H140" s="59"/>
+      <c r="I140" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="C140" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D140" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E140" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F140" s="41">
-        <v>10</v>
-      </c>
-      <c r="G140" s="44"/>
-      <c r="H140" s="44"/>
-      <c r="I140" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="J140" s="54"/>
+      <c r="J140" s="48"/>
     </row>
     <row r="141" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="23">
         <v>140</v>
       </c>
-      <c r="B141" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C141" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D141" s="42" t="s">
+      <c r="B141" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E141" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F141" s="41">
+      <c r="E141" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F141" s="49">
         <v>4</v>
       </c>
-      <c r="G141" s="44"/>
-      <c r="H141" s="44"/>
-      <c r="I141" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="J141" s="54"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="55"/>
+      <c r="I141" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="J141" s="48"/>
     </row>
     <row r="142" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="23">
         <v>141</v>
       </c>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D142" s="42" t="s">
+      <c r="C142" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D142" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E142" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F142" s="41">
+      <c r="E142" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F142" s="49">
         <v>6</v>
       </c>
-      <c r="G142" s="44"/>
-      <c r="H142" s="44"/>
-      <c r="I142" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="J142" s="54"/>
+      <c r="G142" s="55"/>
+      <c r="H142" s="55"/>
+      <c r="I142" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="J142" s="48"/>
     </row>
     <row r="143" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>142</v>
       </c>
-      <c r="B143" s="47" t="s">
+      <c r="B143" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C143" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D143" s="42" t="s">
+      <c r="C143" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E143" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F143" s="41">
+      <c r="E143" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F143" s="49">
         <v>6</v>
       </c>
-      <c r="G143" s="44"/>
-      <c r="H143" s="44"/>
-      <c r="I143" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="J143" s="54"/>
+      <c r="G143" s="55"/>
+      <c r="H143" s="55"/>
+      <c r="I143" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="J143" s="48"/>
     </row>
     <row r="144" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>143</v>
       </c>
-      <c r="B144" s="36" t="s">
+      <c r="B144" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D144" s="42" t="s">
+      <c r="C144" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E144" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F144" s="41">
+      <c r="E144" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F144" s="49">
         <v>5</v>
       </c>
-      <c r="G144" s="44"/>
-      <c r="H144" s="44"/>
-      <c r="I144" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J144" s="54"/>
+      <c r="G144" s="55"/>
+      <c r="H144" s="55"/>
+      <c r="I144" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="J144" s="48"/>
     </row>
     <row r="145" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>144</v>
       </c>
-      <c r="B145" s="47" t="s">
+      <c r="B145" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E145" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F145" s="49">
+        <v>5</v>
+      </c>
+      <c r="G145" s="55"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="C145" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D145" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E145" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F145" s="41">
-        <v>5</v>
-      </c>
-      <c r="G145" s="44"/>
-      <c r="H145" s="44"/>
-      <c r="I145" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="J145" s="54"/>
+      <c r="J145" s="48"/>
     </row>
     <row r="146" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>145</v>
       </c>
-      <c r="B146" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C146" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D146" s="42" t="s">
+      <c r="B146" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D146" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E146" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F146" s="41">
+      <c r="E146" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F146" s="49">
         <v>9</v>
       </c>
-      <c r="G146" s="44"/>
-      <c r="H146" s="44"/>
-      <c r="I146" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="J146" s="54"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="55"/>
+      <c r="I146" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="J146" s="48"/>
     </row>
     <row r="147" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>146</v>
       </c>
-      <c r="B147" s="47" t="s">
+      <c r="B147" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D147" s="42" t="s">
+      <c r="C147" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D147" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E147" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F147" s="41">
+      <c r="E147" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F147" s="49">
         <v>8</v>
       </c>
-      <c r="G147" s="44"/>
-      <c r="H147" s="44"/>
-      <c r="I147" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="J147" s="54"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="55"/>
+      <c r="I147" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="J147" s="48"/>
     </row>
     <row r="148" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>147</v>
       </c>
-      <c r="B148" s="47" t="s">
+      <c r="B148" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D148" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E148" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F148" s="49">
+        <v>12</v>
+      </c>
+      <c r="G148" s="55"/>
+      <c r="H148" s="55"/>
+      <c r="I148" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="C148" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D148" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E148" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F148" s="41">
-        <v>12</v>
-      </c>
-      <c r="G148" s="44"/>
-      <c r="H148" s="44"/>
-      <c r="I148" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="J148" s="54"/>
+      <c r="J148" s="48"/>
     </row>
     <row r="149" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>148</v>
       </c>
-      <c r="B149" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="C149" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D149" s="42" t="s">
+      <c r="B149" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D149" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E149" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F149" s="41">
+      <c r="E149" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F149" s="49">
         <v>8</v>
       </c>
-      <c r="G149" s="44"/>
-      <c r="H149" s="44"/>
-      <c r="I149" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="J149" s="54"/>
+      <c r="G149" s="55"/>
+      <c r="H149" s="55"/>
+      <c r="I149" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="J149" s="48"/>
     </row>
     <row r="150" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>149</v>
       </c>
-      <c r="B150" s="47" t="s">
+      <c r="B150" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F150" s="49">
+        <v>10</v>
+      </c>
+      <c r="G150" s="55"/>
+      <c r="H150" s="55"/>
+      <c r="I150" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="C150" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D150" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E150" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F150" s="41">
-        <v>10</v>
-      </c>
-      <c r="G150" s="44"/>
-      <c r="H150" s="44"/>
-      <c r="I150" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="J150" s="54"/>
+      <c r="J150" s="48"/>
     </row>
     <row r="151" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>150</v>
       </c>
-      <c r="B151" s="47" t="s">
+      <c r="B151" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F151" s="49">
+        <v>8</v>
+      </c>
+      <c r="G151" s="55"/>
+      <c r="H151" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="I151" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="J151" s="48"/>
+    </row>
+    <row r="152" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A152" s="23">
+        <v>151</v>
+      </c>
+      <c r="B152" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E152" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F152" s="49">
+        <v>14</v>
+      </c>
+      <c r="G152" s="55"/>
+      <c r="H152" s="55"/>
+      <c r="I152" s="55" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="23">
+        <v>152</v>
+      </c>
+      <c r="B153" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E153" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F153" s="49">
+        <v>10</v>
+      </c>
+      <c r="G153" s="55"/>
+      <c r="H153" s="55"/>
+      <c r="I153" s="55" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="23">
+        <v>153</v>
+      </c>
+      <c r="B154" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F154" s="49">
+        <v>12</v>
+      </c>
+      <c r="G154" s="55"/>
+      <c r="H154" s="55"/>
+      <c r="I154" s="55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="202.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="23">
+        <v>154</v>
+      </c>
+      <c r="B155" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F155" s="49">
+        <v>14</v>
+      </c>
+      <c r="G155" s="55"/>
+      <c r="H155" s="55"/>
+      <c r="I155" s="55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A156" s="23">
+        <v>155</v>
+      </c>
+      <c r="B156" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E156" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F156" s="49">
+        <v>12</v>
+      </c>
+      <c r="G156" s="55"/>
+      <c r="H156" s="55"/>
+      <c r="I156" s="55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="23">
         <v>156</v>
       </c>
-      <c r="C151" s="34" t="s">
+      <c r="B157" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D157" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E157" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F157" s="49">
+        <v>8</v>
+      </c>
+      <c r="G157" s="55"/>
+      <c r="H157" s="55"/>
+      <c r="I157" s="55" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A158" s="23">
+        <v>157</v>
+      </c>
+      <c r="B158" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F158" s="49">
+        <v>12</v>
+      </c>
+      <c r="G158" s="55"/>
+      <c r="H158" s="55"/>
+      <c r="I158" s="55" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="23">
+        <v>158</v>
+      </c>
+      <c r="B159" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="C159" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D151" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E151" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F151" s="41">
+      <c r="D159" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E159" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F159" s="49">
+        <v>18</v>
+      </c>
+      <c r="G159" s="55"/>
+      <c r="H159" s="55"/>
+      <c r="I159" s="55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="23">
+        <v>159</v>
+      </c>
+      <c r="B160" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E160" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F160" s="49">
+        <v>10</v>
+      </c>
+      <c r="G160" s="55"/>
+      <c r="H160" s="55"/>
+      <c r="I160" s="55" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A161" s="23">
+        <v>160</v>
+      </c>
+      <c r="B161" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E161" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F161" s="49">
+        <v>10</v>
+      </c>
+      <c r="G161" s="55"/>
+      <c r="H161" s="55"/>
+      <c r="I161" s="55" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="23">
+        <v>161</v>
+      </c>
+      <c r="B162" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F162" s="49">
         <v>8</v>
       </c>
-      <c r="G151" s="44"/>
-      <c r="H151" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="I151" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="J151" s="54"/>
+      <c r="G162" s="55"/>
+      <c r="H162" s="55"/>
+      <c r="I162" s="55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A163" s="23">
+        <v>162</v>
+      </c>
+      <c r="B163" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F163" s="49">
+        <v>7</v>
+      </c>
+      <c r="G163" s="55"/>
+      <c r="H163" s="55"/>
+      <c r="I163" s="55" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="23">
+        <v>163</v>
+      </c>
+      <c r="B164" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D164" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F164" s="49">
+        <v>8</v>
+      </c>
+      <c r="G164" s="55"/>
+      <c r="H164" s="55"/>
+      <c r="I164" s="55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A165" s="23">
+        <v>164</v>
+      </c>
+      <c r="B165" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F165" s="49">
+        <v>8</v>
+      </c>
+      <c r="G165" s="55"/>
+      <c r="H165" s="55"/>
+      <c r="I165" s="55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="23">
+        <v>165</v>
+      </c>
+      <c r="B166" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D166" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F166" s="49">
+        <v>7</v>
+      </c>
+      <c r="G166" s="55"/>
+      <c r="H166" s="55"/>
+      <c r="I166" s="55" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="23">
+        <v>166</v>
+      </c>
+      <c r="B167" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F167" s="49">
+        <v>5</v>
+      </c>
+      <c r="G167" s="55"/>
+      <c r="H167" s="55"/>
+      <c r="I167" s="55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A168" s="23">
+        <v>167</v>
+      </c>
+      <c r="B168" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E168" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F168" s="49">
+        <v>6</v>
+      </c>
+      <c r="G168" s="55"/>
+      <c r="H168" s="55"/>
+      <c r="I168" s="55" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A169" s="23">
+        <v>168</v>
+      </c>
+      <c r="B169" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D169" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E169" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F169" s="49">
+        <v>10</v>
+      </c>
+      <c r="G169" s="55"/>
+      <c r="H169" s="55"/>
+      <c r="I169" s="55" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A170" s="23">
+        <v>169</v>
+      </c>
+      <c r="B170" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D170" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E170" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F170" s="49">
+        <v>8</v>
+      </c>
+      <c r="G170" s="55"/>
+      <c r="H170" s="55"/>
+      <c r="I170" s="55" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A171" s="23">
+        <v>170</v>
+      </c>
+      <c r="B171" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D171" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E171" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F171" s="49">
+        <v>5</v>
+      </c>
+      <c r="G171" s="55"/>
+      <c r="H171" s="55"/>
+      <c r="I171" s="55" t="s">
+        <v>401</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
